--- a/Project 1 Test a Perceptual Phenomenon/P1 Data.xlsx
+++ b/Project 1 Test a Perceptual Phenomenon/P1 Data.xlsx
@@ -192,22 +192,10 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(X</t>
+      <t>((X</t>
     </r>
     <r>
       <rPr>
@@ -253,7 +241,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
+      <t>) - xbar)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
     </r>
   </si>
 </sst>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +273,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,8 +310,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,12 +328,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,28 +361,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1103,18 +1142,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -1139,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1157,8 +1194,8 @@
         <v>-7.1989999999999981</v>
       </c>
       <c r="D3">
-        <f>C3*C3</f>
-        <v>51.82560099999997</v>
+        <f>(C3-(-7.96))^2</f>
+        <v>0.57912100000000288</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1173,8 +1210,8 @@
         <v>-1.9499999999999993</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D26" si="1">C4*C4</f>
-        <v>3.8024999999999971</v>
+        <f t="shared" ref="D4:D26" si="1">(C4-(-7.96))^2</f>
+        <v>36.120100000000008</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1190,7 +1227,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>135.72249999999997</v>
+        <v>13.616099999999991</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1206,7 +1243,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>49.801248999999977</v>
+        <v>0.81540900000000249</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1222,7 +1259,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>66.161956000000004</v>
+        <v>3.0276000000000133E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1238,7 +1275,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>74.649600000000007</v>
+        <v>0.46240000000000081</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1254,7 +1291,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>97.614399999999975</v>
+        <v>3.6863999999999963</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1270,7 +1307,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>70.677648999999974</v>
+        <v>0.19980899999999846</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1286,7 +1323,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>129.07232100000002</v>
+        <v>11.566801000000005</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1302,7 +1339,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>139.287204</v>
+        <v>14.760963999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1318,7 +1355,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>4.8224160000000067</v>
+        <v>33.223695999999983</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1334,7 +1371,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>11.195715999999988</v>
+        <v>21.288996000000015</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1350,7 +1387,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>5.9389690000000055</v>
+        <v>30.503528999999986</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1366,7 +1403,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>11.566800999999998</v>
+        <v>20.784481000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1382,7 +1419,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>290.8730250000001</v>
+        <v>82.719025000000045</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1398,7 +1435,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>100.56078400000001</v>
+        <v>4.2766240000000018</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1414,7 +1451,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>44.142735999999978</v>
+        <v>1.7318560000000043</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1430,7 +1467,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>95.844099999999983</v>
+        <v>3.3488999999999969</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1446,7 +1483,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>36.978561000000013</v>
+        <v>3.5306409999999948</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1462,7 +1499,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>480.44256099999984</v>
+        <v>194.85368099999988</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1478,7 +1515,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>119.90249999999995</v>
+        <v>8.9400999999999851</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1494,7 +1531,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>13.890529000000003</v>
+        <v>17.918288999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1510,7 +1547,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>5.5131039999999949</v>
+        <v>31.494544000000012</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1526,29 +1563,31 @@
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>26.553408999999988</v>
-      </c>
-      <c r="E26" s="1" t="s">
+        <v>7.8792490000000068</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="E27" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:7">
+      <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f>SUM(D3:D26)</f>
-        <v>2066.8401909999993</v>
-      </c>
-      <c r="E27">
-        <f>D27/23</f>
-        <v>89.862616999999972</v>
-      </c>
-      <c r="F27">
-        <f>SQRT(E27)</f>
-        <v>9.4795894953315347</v>
-      </c>
-      <c r="G27" s="6" t="s">
+        <v>544.33099099999993</v>
+      </c>
+      <c r="E28" s="11">
+        <f>D28/23</f>
+        <v>23.666564826086955</v>
+      </c>
+      <c r="F28">
+        <f>SQRT(E28)</f>
+        <v>4.8648293727619016</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Project 1 Test a Perceptual Phenomenon/P1 Data.xlsx
+++ b/Project 1 Test a Perceptual Phenomenon/P1 Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Congruent</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Label</t>
-  </si>
-  <si>
-    <t>&lt;- xbar Diff.</t>
   </si>
   <si>
     <t>&lt;- SD</t>
@@ -256,12 +253,116 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>&lt;- xbar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;- xbar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;- xbar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t=  (xbar</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - xbar</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) / SD/sqrt(n)</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;- t</t>
+  </si>
+  <si>
+    <t>&lt;- n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +415,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -381,15 +490,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -399,6 +505,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -429,7 +539,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -438,10 +547,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.2894363814279388E-2"/>
-          <c:y val="0.14836898871036344"/>
+          <c:x val="9.2894363814279429E-2"/>
+          <c:y val="0.14836898871036347"/>
           <c:w val="0.87655006538816793"/>
-          <c:h val="0.74209726701985212"/>
+          <c:h val="0.74209726701985224"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -547,11 +656,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="62421632"/>
-        <c:axId val="62660992"/>
+        <c:axId val="137658752"/>
+        <c:axId val="137660288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62421632"/>
+        <c:axId val="137658752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,14 +677,14 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62660992"/>
+        <c:crossAx val="137660288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62660992"/>
+        <c:axId val="137660288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -597,11 +706,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62421632"/>
+        <c:crossAx val="137658752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -610,7 +718,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -636,7 +744,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -724,11 +831,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="0"/>
-        <c:axId val="82048512"/>
-        <c:axId val="82050048"/>
+        <c:axId val="156794240"/>
+        <c:axId val="156812416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82048512"/>
+        <c:axId val="156794240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,14 +851,14 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82050048"/>
+        <c:crossAx val="156812416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82050048"/>
+        <c:axId val="156812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,11 +880,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82048512"/>
+        <c:crossAx val="156794240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -786,7 +892,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1144,7 +1250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1154,35 +1262,41 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="C1">
-        <v>-7.96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:7">
+      <c r="F1">
+        <v>24</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2">
+        <v>14.05</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3">
         <v>12.079000000000001</v>
       </c>
@@ -1197,8 +1311,14 @@
         <f>(C3-(-7.96))^2</f>
         <v>0.57912100000000288</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>22.02</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
       <c r="A4">
         <v>16.791</v>
       </c>
@@ -1213,8 +1333,14 @@
         <f t="shared" ref="D4:D26" si="1">(C4-(-7.96))^2</f>
         <v>36.120100000000008</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>-7.96</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>9.5640000000000001</v>
       </c>
@@ -1230,7 +1356,7 @@
         <v>13.616099999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6">
         <v>8.6300000000000008</v>
       </c>
@@ -1245,8 +1371,11 @@
         <f t="shared" si="1"/>
         <v>0.81540900000000249</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>14.669</v>
       </c>
@@ -1262,7 +1391,7 @@
         <v>3.0276000000000133E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>12.238</v>
       </c>
@@ -1277,8 +1406,15 @@
         <f t="shared" si="1"/>
         <v>0.46240000000000081</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="13">
+        <f>(F2-F3)/(F28/SQRT(F1))</f>
+        <v>-8.0259477790886979</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>14.692</v>
       </c>
@@ -1294,7 +1430,7 @@
         <v>3.6863999999999963</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8.9870000000000001</v>
       </c>
@@ -1310,7 +1446,7 @@
         <v>0.19980899999999846</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9.4009999999999998</v>
       </c>
@@ -1326,7 +1462,7 @@
         <v>11.566801000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>14.48</v>
       </c>
@@ -1342,7 +1478,7 @@
         <v>14.760963999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>22.327999999999999</v>
       </c>
@@ -1358,7 +1494,7 @@
         <v>33.223695999999983</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>15.298</v>
       </c>
@@ -1374,7 +1510,7 @@
         <v>21.288996000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>15.073</v>
       </c>
@@ -1390,7 +1526,7 @@
         <v>30.503528999999986</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>16.928999999999998</v>
       </c>
@@ -1567,19 +1703,19 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="E27" s="12" t="s">
-        <v>40</v>
+      <c r="E27" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <f>SUM(D3:D26)</f>
         <v>544.33099099999993</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <f>D28/23</f>
         <v>23.666564826086955</v>
       </c>
@@ -1587,8 +1723,8 @@
         <f>SQRT(E28)</f>
         <v>4.8648293727619016</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>38</v>
+      <c r="G28" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1608,17 +1744,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:18" ht="23.25">
-      <c r="B1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="3" spans="2:18">
       <c r="L3" s="2" t="s">
@@ -1631,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1642,7 +1778,7 @@
       </c>
     </row>
     <row r="4" spans="2:18">
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="3">
@@ -1652,7 +1788,7 @@
         <f t="array" ref="N4:N23">FREQUENCY(Data!$A$3:$A$26,M4:M23)</f>
         <v>0</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Q4" s="3">
@@ -1664,7 +1800,7 @@
       </c>
     </row>
     <row r="5" spans="2:18">
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3">
@@ -1673,7 +1809,7 @@
       <c r="N5" s="3">
         <v>0</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Q5" s="3">
@@ -1684,7 +1820,7 @@
       </c>
     </row>
     <row r="6" spans="2:18">
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="3">
@@ -1693,7 +1829,7 @@
       <c r="N6" s="3">
         <v>2</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q6" s="3">
@@ -1704,7 +1840,7 @@
       </c>
     </row>
     <row r="7" spans="2:18">
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="3">
@@ -1713,7 +1849,7 @@
       <c r="N7" s="3">
         <v>4</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Q7" s="3">
@@ -1724,7 +1860,7 @@
       </c>
     </row>
     <row r="8" spans="2:18">
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M8" s="3">
@@ -1733,18 +1869,18 @@
       <c r="N8" s="3">
         <v>9</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="3">
         <v>10</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:18">
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="3">
@@ -1753,18 +1889,18 @@
       <c r="N9" s="3">
         <v>5</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Q9" s="3">
         <v>12</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:18">
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="M10" s="3">
@@ -1773,18 +1909,18 @@
       <c r="N10" s="3">
         <v>3</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q10" s="3">
         <v>14</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:18">
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="3">
@@ -1793,18 +1929,18 @@
       <c r="N11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="3">
         <v>16</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:18">
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="M12" s="3">
@@ -1813,18 +1949,18 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="3">
         <v>18</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:18">
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M13" s="3">
@@ -1833,18 +1969,18 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="3">
         <v>20</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:18">
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="3">
@@ -1853,18 +1989,18 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q14" s="3">
         <v>22</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:18">
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="3">
@@ -1873,18 +2009,18 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="Q15" s="3">
         <v>24</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:18">
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="M16" s="3">
@@ -1893,18 +2029,18 @@
       <c r="N16" s="3">
         <v>0</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3">
         <v>26</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="12:18">
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="3">
@@ -1913,18 +2049,18 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="3">
         <v>28</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="12:18">
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3">
@@ -1933,7 +2069,7 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="Q18" s="3">
@@ -1944,7 +2080,7 @@
       </c>
     </row>
     <row r="19" spans="12:18">
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="3">
@@ -1953,7 +2089,7 @@
       <c r="N19" s="3">
         <v>0</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="3">
@@ -1964,7 +2100,7 @@
       </c>
     </row>
     <row r="20" spans="12:18">
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="3">
@@ -1973,7 +2109,7 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="3">
@@ -1984,7 +2120,7 @@
       </c>
     </row>
     <row r="21" spans="12:18">
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="3">
@@ -1993,7 +2129,7 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="3">
@@ -2004,7 +2140,7 @@
       </c>
     </row>
     <row r="22" spans="12:18">
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M22" s="3">
@@ -2013,7 +2149,7 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="Q22" s="3">
@@ -2024,7 +2160,7 @@
       </c>
     </row>
     <row r="23" spans="12:18">
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M23" s="3">
@@ -2033,7 +2169,7 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="6" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="3">
